--- a/types/h.xlsx
+++ b/types/h.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,10 +476,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="E2" t="n">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="F2" t="n">
         <v>123</v>
@@ -487,7 +487,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>246</v>
+        <v>1123</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
@@ -501,10 +501,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>369</v>
+        <v>1133</v>
       </c>
       <c r="B4" t="n">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>123</v>
@@ -512,6 +512,1266 @@
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1143</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="n">
+        <v>123</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1153</v>
+      </c>
+      <c r="B6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" t="n">
+        <v>123</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1163</v>
+      </c>
+      <c r="B7" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" t="n">
+        <v>123</v>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1173</v>
+      </c>
+      <c r="B8" t="n">
+        <v>5</v>
+      </c>
+      <c r="C8" t="n">
+        <v>123</v>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1183</v>
+      </c>
+      <c r="B9" t="n">
+        <v>6</v>
+      </c>
+      <c r="C9" t="n">
+        <v>123</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1193</v>
+      </c>
+      <c r="B10" t="n">
+        <v>7</v>
+      </c>
+      <c r="C10" t="n">
+        <v>123</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1203</v>
+      </c>
+      <c r="B11" t="n">
+        <v>8</v>
+      </c>
+      <c r="C11" t="n">
+        <v>123</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1213</v>
+      </c>
+      <c r="B12" t="n">
+        <v>9</v>
+      </c>
+      <c r="C12" t="n">
+        <v>123</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1223</v>
+      </c>
+      <c r="B13" t="n">
+        <v>10</v>
+      </c>
+      <c r="C13" t="n">
+        <v>123</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1233</v>
+      </c>
+      <c r="B14" t="n">
+        <v>11</v>
+      </c>
+      <c r="C14" t="n">
+        <v>123</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1243</v>
+      </c>
+      <c r="B15" t="n">
+        <v>12</v>
+      </c>
+      <c r="C15" t="n">
+        <v>123</v>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1253</v>
+      </c>
+      <c r="B16" t="n">
+        <v>13</v>
+      </c>
+      <c r="C16" t="n">
+        <v>123</v>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1263</v>
+      </c>
+      <c r="B17" t="n">
+        <v>14</v>
+      </c>
+      <c r="C17" t="n">
+        <v>123</v>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1273</v>
+      </c>
+      <c r="B18" t="n">
+        <v>15</v>
+      </c>
+      <c r="C18" t="n">
+        <v>123</v>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1283</v>
+      </c>
+      <c r="B19" t="n">
+        <v>16</v>
+      </c>
+      <c r="C19" t="n">
+        <v>123</v>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1293</v>
+      </c>
+      <c r="B20" t="n">
+        <v>17</v>
+      </c>
+      <c r="C20" t="n">
+        <v>123</v>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1303</v>
+      </c>
+      <c r="B21" t="n">
+        <v>18</v>
+      </c>
+      <c r="C21" t="n">
+        <v>123</v>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1313</v>
+      </c>
+      <c r="B22" t="n">
+        <v>19</v>
+      </c>
+      <c r="C22" t="n">
+        <v>123</v>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1323</v>
+      </c>
+      <c r="B23" t="n">
+        <v>20</v>
+      </c>
+      <c r="C23" t="n">
+        <v>123</v>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1333</v>
+      </c>
+      <c r="B24" t="n">
+        <v>21</v>
+      </c>
+      <c r="C24" t="n">
+        <v>123</v>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1343</v>
+      </c>
+      <c r="B25" t="n">
+        <v>22</v>
+      </c>
+      <c r="C25" t="n">
+        <v>123</v>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1353</v>
+      </c>
+      <c r="B26" t="n">
+        <v>23</v>
+      </c>
+      <c r="C26" t="n">
+        <v>123</v>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1363</v>
+      </c>
+      <c r="B27" t="n">
+        <v>24</v>
+      </c>
+      <c r="C27" t="n">
+        <v>123</v>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1373</v>
+      </c>
+      <c r="B28" t="n">
+        <v>25</v>
+      </c>
+      <c r="C28" t="n">
+        <v>123</v>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1383</v>
+      </c>
+      <c r="B29" t="n">
+        <v>26</v>
+      </c>
+      <c r="C29" t="n">
+        <v>123</v>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1393</v>
+      </c>
+      <c r="B30" t="n">
+        <v>27</v>
+      </c>
+      <c r="C30" t="n">
+        <v>123</v>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1403</v>
+      </c>
+      <c r="B31" t="n">
+        <v>28</v>
+      </c>
+      <c r="C31" t="n">
+        <v>123</v>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1413</v>
+      </c>
+      <c r="B32" t="n">
+        <v>29</v>
+      </c>
+      <c r="C32" t="n">
+        <v>123</v>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>1423</v>
+      </c>
+      <c r="B33" t="n">
+        <v>30</v>
+      </c>
+      <c r="C33" t="n">
+        <v>123</v>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1433</v>
+      </c>
+      <c r="B34" t="n">
+        <v>31</v>
+      </c>
+      <c r="C34" t="n">
+        <v>123</v>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1443</v>
+      </c>
+      <c r="B35" t="n">
+        <v>32</v>
+      </c>
+      <c r="C35" t="n">
+        <v>123</v>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>1453</v>
+      </c>
+      <c r="B36" t="n">
+        <v>33</v>
+      </c>
+      <c r="C36" t="n">
+        <v>123</v>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>1463</v>
+      </c>
+      <c r="B37" t="n">
+        <v>34</v>
+      </c>
+      <c r="C37" t="n">
+        <v>123</v>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>1473</v>
+      </c>
+      <c r="B38" t="n">
+        <v>35</v>
+      </c>
+      <c r="C38" t="n">
+        <v>123</v>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>1483</v>
+      </c>
+      <c r="B39" t="n">
+        <v>36</v>
+      </c>
+      <c r="C39" t="n">
+        <v>123</v>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>1493</v>
+      </c>
+      <c r="B40" t="n">
+        <v>37</v>
+      </c>
+      <c r="C40" t="n">
+        <v>123</v>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>1503</v>
+      </c>
+      <c r="B41" t="n">
+        <v>38</v>
+      </c>
+      <c r="C41" t="n">
+        <v>123</v>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>1513</v>
+      </c>
+      <c r="B42" t="n">
+        <v>39</v>
+      </c>
+      <c r="C42" t="n">
+        <v>123</v>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>1523</v>
+      </c>
+      <c r="B43" t="n">
+        <v>40</v>
+      </c>
+      <c r="C43" t="n">
+        <v>123</v>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>1533</v>
+      </c>
+      <c r="B44" t="n">
+        <v>41</v>
+      </c>
+      <c r="C44" t="n">
+        <v>123</v>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>1543</v>
+      </c>
+      <c r="B45" t="n">
+        <v>42</v>
+      </c>
+      <c r="C45" t="n">
+        <v>123</v>
+      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>1553</v>
+      </c>
+      <c r="B46" t="n">
+        <v>43</v>
+      </c>
+      <c r="C46" t="n">
+        <v>123</v>
+      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>1563</v>
+      </c>
+      <c r="B47" t="n">
+        <v>44</v>
+      </c>
+      <c r="C47" t="n">
+        <v>123</v>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>1573</v>
+      </c>
+      <c r="B48" t="n">
+        <v>45</v>
+      </c>
+      <c r="C48" t="n">
+        <v>123</v>
+      </c>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>1583</v>
+      </c>
+      <c r="B49" t="n">
+        <v>46</v>
+      </c>
+      <c r="C49" t="n">
+        <v>123</v>
+      </c>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>1593</v>
+      </c>
+      <c r="B50" t="n">
+        <v>47</v>
+      </c>
+      <c r="C50" t="n">
+        <v>123</v>
+      </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>1603</v>
+      </c>
+      <c r="B51" t="n">
+        <v>48</v>
+      </c>
+      <c r="C51" t="n">
+        <v>123</v>
+      </c>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>1613</v>
+      </c>
+      <c r="B52" t="n">
+        <v>49</v>
+      </c>
+      <c r="C52" t="n">
+        <v>123</v>
+      </c>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>1623</v>
+      </c>
+      <c r="B53" t="n">
+        <v>50</v>
+      </c>
+      <c r="C53" t="n">
+        <v>123</v>
+      </c>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>1633</v>
+      </c>
+      <c r="B54" t="n">
+        <v>51</v>
+      </c>
+      <c r="C54" t="n">
+        <v>123</v>
+      </c>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>1643</v>
+      </c>
+      <c r="B55" t="n">
+        <v>52</v>
+      </c>
+      <c r="C55" t="n">
+        <v>123</v>
+      </c>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>1653</v>
+      </c>
+      <c r="B56" t="n">
+        <v>53</v>
+      </c>
+      <c r="C56" t="n">
+        <v>123</v>
+      </c>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>1663</v>
+      </c>
+      <c r="B57" t="n">
+        <v>54</v>
+      </c>
+      <c r="C57" t="n">
+        <v>123</v>
+      </c>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>1673</v>
+      </c>
+      <c r="B58" t="n">
+        <v>55</v>
+      </c>
+      <c r="C58" t="n">
+        <v>123</v>
+      </c>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>1683</v>
+      </c>
+      <c r="B59" t="n">
+        <v>56</v>
+      </c>
+      <c r="C59" t="n">
+        <v>123</v>
+      </c>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>1693</v>
+      </c>
+      <c r="B60" t="n">
+        <v>57</v>
+      </c>
+      <c r="C60" t="n">
+        <v>123</v>
+      </c>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>1703</v>
+      </c>
+      <c r="B61" t="n">
+        <v>58</v>
+      </c>
+      <c r="C61" t="n">
+        <v>123</v>
+      </c>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>1713</v>
+      </c>
+      <c r="B62" t="n">
+        <v>59</v>
+      </c>
+      <c r="C62" t="n">
+        <v>123</v>
+      </c>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>1723</v>
+      </c>
+      <c r="B63" t="n">
+        <v>60</v>
+      </c>
+      <c r="C63" t="n">
+        <v>123</v>
+      </c>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>1733</v>
+      </c>
+      <c r="B64" t="n">
+        <v>61</v>
+      </c>
+      <c r="C64" t="n">
+        <v>123</v>
+      </c>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>1743</v>
+      </c>
+      <c r="B65" t="n">
+        <v>62</v>
+      </c>
+      <c r="C65" t="n">
+        <v>123</v>
+      </c>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>1753</v>
+      </c>
+      <c r="B66" t="n">
+        <v>63</v>
+      </c>
+      <c r="C66" t="n">
+        <v>123</v>
+      </c>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>1763</v>
+      </c>
+      <c r="B67" t="n">
+        <v>64</v>
+      </c>
+      <c r="C67" t="n">
+        <v>123</v>
+      </c>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>1773</v>
+      </c>
+      <c r="B68" t="n">
+        <v>65</v>
+      </c>
+      <c r="C68" t="n">
+        <v>123</v>
+      </c>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>1783</v>
+      </c>
+      <c r="B69" t="n">
+        <v>66</v>
+      </c>
+      <c r="C69" t="n">
+        <v>123</v>
+      </c>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>1793</v>
+      </c>
+      <c r="B70" t="n">
+        <v>67</v>
+      </c>
+      <c r="C70" t="n">
+        <v>123</v>
+      </c>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>1803</v>
+      </c>
+      <c r="B71" t="n">
+        <v>68</v>
+      </c>
+      <c r="C71" t="n">
+        <v>123</v>
+      </c>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>1813</v>
+      </c>
+      <c r="B72" t="n">
+        <v>69</v>
+      </c>
+      <c r="C72" t="n">
+        <v>123</v>
+      </c>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>1823</v>
+      </c>
+      <c r="B73" t="n">
+        <v>70</v>
+      </c>
+      <c r="C73" t="n">
+        <v>123</v>
+      </c>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>1833</v>
+      </c>
+      <c r="B74" t="n">
+        <v>71</v>
+      </c>
+      <c r="C74" t="n">
+        <v>123</v>
+      </c>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>1843</v>
+      </c>
+      <c r="B75" t="n">
+        <v>72</v>
+      </c>
+      <c r="C75" t="n">
+        <v>123</v>
+      </c>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>1853</v>
+      </c>
+      <c r="B76" t="n">
+        <v>73</v>
+      </c>
+      <c r="C76" t="n">
+        <v>123</v>
+      </c>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>1863</v>
+      </c>
+      <c r="B77" t="n">
+        <v>74</v>
+      </c>
+      <c r="C77" t="n">
+        <v>123</v>
+      </c>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>1873</v>
+      </c>
+      <c r="B78" t="n">
+        <v>75</v>
+      </c>
+      <c r="C78" t="n">
+        <v>123</v>
+      </c>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>1883</v>
+      </c>
+      <c r="B79" t="n">
+        <v>76</v>
+      </c>
+      <c r="C79" t="n">
+        <v>123</v>
+      </c>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>1893</v>
+      </c>
+      <c r="B80" t="n">
+        <v>77</v>
+      </c>
+      <c r="C80" t="n">
+        <v>123</v>
+      </c>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>1903</v>
+      </c>
+      <c r="B81" t="n">
+        <v>78</v>
+      </c>
+      <c r="C81" t="n">
+        <v>123</v>
+      </c>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>1913</v>
+      </c>
+      <c r="B82" t="n">
+        <v>79</v>
+      </c>
+      <c r="C82" t="n">
+        <v>123</v>
+      </c>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>1923</v>
+      </c>
+      <c r="B83" t="n">
+        <v>80</v>
+      </c>
+      <c r="C83" t="n">
+        <v>123</v>
+      </c>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>1933</v>
+      </c>
+      <c r="B84" t="n">
+        <v>81</v>
+      </c>
+      <c r="C84" t="n">
+        <v>123</v>
+      </c>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>1943</v>
+      </c>
+      <c r="B85" t="n">
+        <v>82</v>
+      </c>
+      <c r="C85" t="n">
+        <v>123</v>
+      </c>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>1953</v>
+      </c>
+      <c r="B86" t="n">
+        <v>83</v>
+      </c>
+      <c r="C86" t="n">
+        <v>123</v>
+      </c>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>1963</v>
+      </c>
+      <c r="B87" t="n">
+        <v>84</v>
+      </c>
+      <c r="C87" t="n">
+        <v>123</v>
+      </c>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>1973</v>
+      </c>
+      <c r="B88" t="n">
+        <v>85</v>
+      </c>
+      <c r="C88" t="n">
+        <v>123</v>
+      </c>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>1983</v>
+      </c>
+      <c r="B89" t="n">
+        <v>86</v>
+      </c>
+      <c r="C89" t="n">
+        <v>123</v>
+      </c>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>1993</v>
+      </c>
+      <c r="B90" t="n">
+        <v>87</v>
+      </c>
+      <c r="C90" t="n">
+        <v>123</v>
+      </c>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>2003</v>
+      </c>
+      <c r="B91" t="n">
+        <v>88</v>
+      </c>
+      <c r="C91" t="n">
+        <v>123</v>
+      </c>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B92" t="n">
+        <v>89</v>
+      </c>
+      <c r="C92" t="n">
+        <v>123</v>
+      </c>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B93" t="n">
+        <v>90</v>
+      </c>
+      <c r="C93" t="n">
+        <v>123</v>
+      </c>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>3023</v>
+      </c>
+      <c r="B94" t="n">
+        <v>90</v>
+      </c>
+      <c r="C94" t="n">
+        <v>123</v>
+      </c>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/types/h.xlsx
+++ b/types/h.xlsx
@@ -467,7 +467,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -476,18 +476,18 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>123</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1123</v>
+        <v>1000</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
@@ -501,7 +501,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1133</v>
+        <v>1010</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
@@ -515,7 +515,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1143</v>
+        <v>1020</v>
       </c>
       <c r="B5" t="n">
         <v>2</v>
@@ -529,7 +529,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1153</v>
+        <v>1030</v>
       </c>
       <c r="B6" t="n">
         <v>3</v>
@@ -543,7 +543,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1163</v>
+        <v>1040</v>
       </c>
       <c r="B7" t="n">
         <v>4</v>
@@ -557,7 +557,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1173</v>
+        <v>1050</v>
       </c>
       <c r="B8" t="n">
         <v>5</v>
@@ -571,7 +571,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1183</v>
+        <v>1060</v>
       </c>
       <c r="B9" t="n">
         <v>6</v>
@@ -585,7 +585,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1193</v>
+        <v>1070</v>
       </c>
       <c r="B10" t="n">
         <v>7</v>
@@ -599,7 +599,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1203</v>
+        <v>1080</v>
       </c>
       <c r="B11" t="n">
         <v>8</v>
@@ -613,7 +613,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1213</v>
+        <v>1090</v>
       </c>
       <c r="B12" t="n">
         <v>9</v>
@@ -627,7 +627,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1223</v>
+        <v>1100</v>
       </c>
       <c r="B13" t="n">
         <v>10</v>
@@ -641,7 +641,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1233</v>
+        <v>1110</v>
       </c>
       <c r="B14" t="n">
         <v>11</v>
@@ -655,7 +655,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1243</v>
+        <v>1120</v>
       </c>
       <c r="B15" t="n">
         <v>12</v>
@@ -669,7 +669,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1253</v>
+        <v>1130</v>
       </c>
       <c r="B16" t="n">
         <v>13</v>
@@ -683,7 +683,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1263</v>
+        <v>1140</v>
       </c>
       <c r="B17" t="n">
         <v>14</v>
@@ -697,7 +697,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1273</v>
+        <v>1150</v>
       </c>
       <c r="B18" t="n">
         <v>15</v>
@@ -711,7 +711,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1283</v>
+        <v>1160</v>
       </c>
       <c r="B19" t="n">
         <v>16</v>
@@ -725,7 +725,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1293</v>
+        <v>1170</v>
       </c>
       <c r="B20" t="n">
         <v>17</v>
@@ -739,7 +739,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1303</v>
+        <v>1180</v>
       </c>
       <c r="B21" t="n">
         <v>18</v>
@@ -753,7 +753,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1313</v>
+        <v>1190</v>
       </c>
       <c r="B22" t="n">
         <v>19</v>
@@ -767,7 +767,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1323</v>
+        <v>1200</v>
       </c>
       <c r="B23" t="n">
         <v>20</v>
@@ -781,7 +781,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1333</v>
+        <v>1210</v>
       </c>
       <c r="B24" t="n">
         <v>21</v>
@@ -795,7 +795,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1343</v>
+        <v>1220</v>
       </c>
       <c r="B25" t="n">
         <v>22</v>
@@ -809,7 +809,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1353</v>
+        <v>1230</v>
       </c>
       <c r="B26" t="n">
         <v>23</v>
@@ -823,7 +823,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1363</v>
+        <v>1240</v>
       </c>
       <c r="B27" t="n">
         <v>24</v>
@@ -837,7 +837,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1373</v>
+        <v>1250</v>
       </c>
       <c r="B28" t="n">
         <v>25</v>
@@ -851,7 +851,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1383</v>
+        <v>1260</v>
       </c>
       <c r="B29" t="n">
         <v>26</v>
@@ -865,7 +865,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1393</v>
+        <v>1270</v>
       </c>
       <c r="B30" t="n">
         <v>27</v>
@@ -879,7 +879,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1403</v>
+        <v>1280</v>
       </c>
       <c r="B31" t="n">
         <v>28</v>
@@ -893,7 +893,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1413</v>
+        <v>1290</v>
       </c>
       <c r="B32" t="n">
         <v>29</v>
@@ -907,7 +907,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1423</v>
+        <v>1300</v>
       </c>
       <c r="B33" t="n">
         <v>30</v>
@@ -921,7 +921,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1433</v>
+        <v>1310</v>
       </c>
       <c r="B34" t="n">
         <v>31</v>
@@ -935,7 +935,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1443</v>
+        <v>1320</v>
       </c>
       <c r="B35" t="n">
         <v>32</v>
@@ -949,7 +949,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1453</v>
+        <v>1330</v>
       </c>
       <c r="B36" t="n">
         <v>33</v>
@@ -963,7 +963,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1463</v>
+        <v>1340</v>
       </c>
       <c r="B37" t="n">
         <v>34</v>
@@ -977,7 +977,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1473</v>
+        <v>1350</v>
       </c>
       <c r="B38" t="n">
         <v>35</v>
@@ -991,7 +991,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1483</v>
+        <v>1360</v>
       </c>
       <c r="B39" t="n">
         <v>36</v>
@@ -1005,7 +1005,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1493</v>
+        <v>1370</v>
       </c>
       <c r="B40" t="n">
         <v>37</v>
@@ -1019,7 +1019,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1503</v>
+        <v>1380</v>
       </c>
       <c r="B41" t="n">
         <v>38</v>
@@ -1033,7 +1033,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1513</v>
+        <v>1390</v>
       </c>
       <c r="B42" t="n">
         <v>39</v>
@@ -1047,7 +1047,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1523</v>
+        <v>1400</v>
       </c>
       <c r="B43" t="n">
         <v>40</v>
@@ -1061,7 +1061,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1533</v>
+        <v>1410</v>
       </c>
       <c r="B44" t="n">
         <v>41</v>
@@ -1075,7 +1075,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1543</v>
+        <v>1420</v>
       </c>
       <c r="B45" t="n">
         <v>42</v>
@@ -1089,7 +1089,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1553</v>
+        <v>1430</v>
       </c>
       <c r="B46" t="n">
         <v>43</v>
@@ -1103,7 +1103,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1563</v>
+        <v>1440</v>
       </c>
       <c r="B47" t="n">
         <v>44</v>
@@ -1117,7 +1117,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1573</v>
+        <v>1450</v>
       </c>
       <c r="B48" t="n">
         <v>45</v>
@@ -1131,7 +1131,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1583</v>
+        <v>1460</v>
       </c>
       <c r="B49" t="n">
         <v>46</v>
@@ -1145,7 +1145,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1593</v>
+        <v>1470</v>
       </c>
       <c r="B50" t="n">
         <v>47</v>
@@ -1159,7 +1159,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1603</v>
+        <v>1480</v>
       </c>
       <c r="B51" t="n">
         <v>48</v>
@@ -1173,7 +1173,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1613</v>
+        <v>1490</v>
       </c>
       <c r="B52" t="n">
         <v>49</v>
@@ -1187,7 +1187,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1623</v>
+        <v>1500</v>
       </c>
       <c r="B53" t="n">
         <v>50</v>
@@ -1201,7 +1201,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1633</v>
+        <v>1510</v>
       </c>
       <c r="B54" t="n">
         <v>51</v>
@@ -1215,7 +1215,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1643</v>
+        <v>1520</v>
       </c>
       <c r="B55" t="n">
         <v>52</v>
@@ -1229,7 +1229,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1653</v>
+        <v>1530</v>
       </c>
       <c r="B56" t="n">
         <v>53</v>
@@ -1243,7 +1243,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1663</v>
+        <v>1540</v>
       </c>
       <c r="B57" t="n">
         <v>54</v>
@@ -1257,7 +1257,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1673</v>
+        <v>1550</v>
       </c>
       <c r="B58" t="n">
         <v>55</v>
@@ -1271,7 +1271,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1683</v>
+        <v>1560</v>
       </c>
       <c r="B59" t="n">
         <v>56</v>
@@ -1285,7 +1285,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1693</v>
+        <v>1570</v>
       </c>
       <c r="B60" t="n">
         <v>57</v>
@@ -1299,7 +1299,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1703</v>
+        <v>1580</v>
       </c>
       <c r="B61" t="n">
         <v>58</v>
@@ -1313,7 +1313,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1713</v>
+        <v>1590</v>
       </c>
       <c r="B62" t="n">
         <v>59</v>
@@ -1327,7 +1327,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1723</v>
+        <v>1600</v>
       </c>
       <c r="B63" t="n">
         <v>60</v>
@@ -1341,7 +1341,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1733</v>
+        <v>1610</v>
       </c>
       <c r="B64" t="n">
         <v>61</v>
@@ -1355,7 +1355,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1743</v>
+        <v>1620</v>
       </c>
       <c r="B65" t="n">
         <v>62</v>
@@ -1369,7 +1369,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1753</v>
+        <v>1630</v>
       </c>
       <c r="B66" t="n">
         <v>63</v>
@@ -1383,7 +1383,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>1763</v>
+        <v>1640</v>
       </c>
       <c r="B67" t="n">
         <v>64</v>
@@ -1397,7 +1397,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1773</v>
+        <v>1650</v>
       </c>
       <c r="B68" t="n">
         <v>65</v>
@@ -1411,7 +1411,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>1783</v>
+        <v>1660</v>
       </c>
       <c r="B69" t="n">
         <v>66</v>
@@ -1425,7 +1425,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>1793</v>
+        <v>1670</v>
       </c>
       <c r="B70" t="n">
         <v>67</v>
@@ -1439,7 +1439,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>1803</v>
+        <v>1680</v>
       </c>
       <c r="B71" t="n">
         <v>68</v>
@@ -1453,7 +1453,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1813</v>
+        <v>1690</v>
       </c>
       <c r="B72" t="n">
         <v>69</v>
@@ -1467,7 +1467,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>1823</v>
+        <v>1700</v>
       </c>
       <c r="B73" t="n">
         <v>70</v>
@@ -1481,7 +1481,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>1833</v>
+        <v>1710</v>
       </c>
       <c r="B74" t="n">
         <v>71</v>
@@ -1495,7 +1495,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>1843</v>
+        <v>1720</v>
       </c>
       <c r="B75" t="n">
         <v>72</v>
@@ -1509,7 +1509,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>1853</v>
+        <v>1730</v>
       </c>
       <c r="B76" t="n">
         <v>73</v>
@@ -1523,7 +1523,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>1863</v>
+        <v>1740</v>
       </c>
       <c r="B77" t="n">
         <v>74</v>
@@ -1537,7 +1537,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>1873</v>
+        <v>1750</v>
       </c>
       <c r="B78" t="n">
         <v>75</v>
@@ -1551,7 +1551,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>1883</v>
+        <v>1760</v>
       </c>
       <c r="B79" t="n">
         <v>76</v>
@@ -1565,7 +1565,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>1893</v>
+        <v>1770</v>
       </c>
       <c r="B80" t="n">
         <v>77</v>
@@ -1579,7 +1579,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>1903</v>
+        <v>1780</v>
       </c>
       <c r="B81" t="n">
         <v>78</v>
@@ -1593,7 +1593,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>1913</v>
+        <v>1790</v>
       </c>
       <c r="B82" t="n">
         <v>79</v>
@@ -1607,7 +1607,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>1923</v>
+        <v>1800</v>
       </c>
       <c r="B83" t="n">
         <v>80</v>
@@ -1621,7 +1621,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>1933</v>
+        <v>1810</v>
       </c>
       <c r="B84" t="n">
         <v>81</v>
@@ -1635,7 +1635,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>1943</v>
+        <v>1820</v>
       </c>
       <c r="B85" t="n">
         <v>82</v>
@@ -1649,7 +1649,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>1953</v>
+        <v>1830</v>
       </c>
       <c r="B86" t="n">
         <v>83</v>
@@ -1663,7 +1663,7 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>1963</v>
+        <v>1840</v>
       </c>
       <c r="B87" t="n">
         <v>84</v>
@@ -1677,7 +1677,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>1973</v>
+        <v>1850</v>
       </c>
       <c r="B88" t="n">
         <v>85</v>
@@ -1691,7 +1691,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>1983</v>
+        <v>1860</v>
       </c>
       <c r="B89" t="n">
         <v>86</v>
@@ -1705,7 +1705,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>1993</v>
+        <v>1870</v>
       </c>
       <c r="B90" t="n">
         <v>87</v>
@@ -1719,7 +1719,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2003</v>
+        <v>1880</v>
       </c>
       <c r="B91" t="n">
         <v>88</v>
@@ -1733,7 +1733,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2013</v>
+        <v>1890</v>
       </c>
       <c r="B92" t="n">
         <v>89</v>
@@ -1747,7 +1747,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2023</v>
+        <v>1900</v>
       </c>
       <c r="B93" t="n">
         <v>90</v>
@@ -1761,7 +1761,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>3023</v>
+        <v>2900</v>
       </c>
       <c r="B94" t="n">
         <v>90</v>
